--- a/tests/test_xls/sheet_txns/test_select/test_select_like/test_select_like_blank/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns/test_select/test_select_like/test_select_like_blank/expected_result.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -447,10 +447,10 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -534,26 +534,22 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Farmer's Market</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-232.51</v>
+        <v>-994.0700000000001</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -562,7 +558,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -580,26 +576,26 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43103</v>
+        <v>43102</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-931.79</v>
+        <v>-150.97</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -626,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43105</v>
+        <v>43102</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -645,7 +641,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-223.92</v>
+        <v>-427.77</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -672,7 +668,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43106</v>
+        <v>43104</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -691,7 +687,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="3" t="n">
-        <v>-512.9</v>
+        <v>-106.34</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -718,22 +714,26 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43112</v>
+        <v>43104</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>-649.52</v>
+        <v>-168.82</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43115</v>
+        <v>43105</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="3" t="n">
-        <v>-802.46</v>
+        <v>-135.71</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43117</v>
+        <v>43105</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="3" t="n">
-        <v>-12.63</v>
+        <v>-898.86</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -852,22 +852,26 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43118</v>
+        <v>43106</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="3" t="n">
-        <v>-594.73</v>
+        <v>-729.9</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -894,22 +898,26 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>43120</v>
+        <v>43106</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="3" t="n">
-        <v>-180.27</v>
+        <v>-336.88</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -936,22 +944,26 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>43121</v>
+        <v>43109</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>-854.1</v>
+        <v>-608.97</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -978,22 +990,26 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>43124</v>
+        <v>43109</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>-928.23</v>
+        <v>-759.35</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1020,22 +1036,26 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>43125</v>
+        <v>43113</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="3" t="n">
-        <v>-787.73</v>
+        <v>-478.88</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1062,7 +1082,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>43127</v>
+        <v>43114</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1081,7 +1101,7 @@
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="3" t="n">
-        <v>-652.03</v>
+        <v>-159.92</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1108,26 +1128,26 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>43127</v>
+        <v>43114</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>-909.05</v>
+        <v>-454.97</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1154,37 +1174,623 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>43131</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>43115</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transfer From</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Checking</t>
-        </is>
-      </c>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" s="3" t="n">
-        <v>8524.51</v>
+        <v>-455.74</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Expense</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
+        <v>43116</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" s="3" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>43119</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" s="3" t="n">
+        <v>-812.6</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" s="2" t="n">
+        <v>43119</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Neighborhood Market</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" s="3" t="n">
+        <v>-544.89</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" s="2" t="n">
+        <v>43122</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" s="3" t="n">
+        <v>-68.91</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" s="2" t="n">
+        <v>43124</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" s="3" t="n">
+        <v>-907.4299999999999</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
+        <v>43126</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kroger</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Grocery Store</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" s="3" t="n">
+        <v>-828</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>43126</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" s="3" t="n">
+        <v>-458.26</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" s="2" t="n">
+        <v>43126</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" s="3" t="n">
+        <v>-127.81</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" s="2" t="n">
+        <v>43127</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" s="3" t="n">
+        <v>-982.34</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
+        <v>43128</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" s="3" t="n">
+        <v>-8.550000000000001</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
+        <v>43130</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wendy's</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" s="3" t="n">
+        <v>-786.9400000000001</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
+        <v>43130</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" s="3" t="n">
+        <v>-886.58</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Transfer From</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>12950.48</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
         <is>
           <t>Era C</t>
         </is>
@@ -1201,7 +1807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1219,10 +1825,10 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -1306,26 +1912,22 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Farmer's Market</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-232.51</v>
+        <v>-994.0700000000001</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1334,7 +1936,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -1352,26 +1954,26 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43103</v>
+        <v>43102</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-931.79</v>
+        <v>-150.97</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1398,7 +2000,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43105</v>
+        <v>43102</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1417,7 +2019,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-223.92</v>
+        <v>-427.77</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1444,7 +2046,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43106</v>
+        <v>43104</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1463,7 +2065,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="3" t="n">
-        <v>-512.9</v>
+        <v>-106.34</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1490,22 +2092,26 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43112</v>
+        <v>43104</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>-649.52</v>
+        <v>-168.82</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1532,7 +2138,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43115</v>
+        <v>43105</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1551,7 +2157,7 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="3" t="n">
-        <v>-802.46</v>
+        <v>-135.71</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1578,7 +2184,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43117</v>
+        <v>43105</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1597,7 +2203,7 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="3" t="n">
-        <v>-12.63</v>
+        <v>-898.86</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1624,22 +2230,26 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43118</v>
+        <v>43106</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="3" t="n">
-        <v>-594.73</v>
+        <v>-729.9</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1666,22 +2276,26 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>43120</v>
+        <v>43106</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="3" t="n">
-        <v>-180.27</v>
+        <v>-336.88</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1708,22 +2322,26 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>43121</v>
+        <v>43109</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>-854.1</v>
+        <v>-608.97</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1750,22 +2368,26 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>43124</v>
+        <v>43109</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>-928.23</v>
+        <v>-759.35</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1792,22 +2414,26 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>43125</v>
+        <v>43113</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="3" t="n">
-        <v>-787.73</v>
+        <v>-478.88</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1834,7 +2460,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>43127</v>
+        <v>43114</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +2479,7 @@
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="3" t="n">
-        <v>-652.03</v>
+        <v>-159.92</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1880,26 +2506,26 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>43127</v>
+        <v>43114</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>-909.05</v>
+        <v>-454.97</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1926,37 +2552,623 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>43131</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>43115</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transfer From</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Checking</t>
-        </is>
-      </c>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" s="3" t="n">
-        <v>8524.51</v>
+        <v>-455.74</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Expense</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
+        <v>43116</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" s="3" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>43119</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" s="3" t="n">
+        <v>-812.6</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" s="2" t="n">
+        <v>43119</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Neighborhood Market</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" s="3" t="n">
+        <v>-544.89</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" s="2" t="n">
+        <v>43122</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" s="3" t="n">
+        <v>-68.91</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" s="2" t="n">
+        <v>43124</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" s="3" t="n">
+        <v>-907.4299999999999</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
+        <v>43126</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kroger</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Grocery Store</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" s="3" t="n">
+        <v>-828</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>43126</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" s="3" t="n">
+        <v>-458.26</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" s="2" t="n">
+        <v>43126</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" s="3" t="n">
+        <v>-127.81</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" s="2" t="n">
+        <v>43127</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" s="3" t="n">
+        <v>-982.34</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
+        <v>43128</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" s="3" t="n">
+        <v>-8.550000000000001</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
+        <v>43130</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wendy's</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" s="3" t="n">
+        <v>-786.9400000000001</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
+        <v>43130</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" s="3" t="n">
+        <v>-886.58</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Transfer From</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>12950.48</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
         <is>
           <t>Era C</t>
         </is>
@@ -1973,7 +3185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1991,10 +3203,10 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -2078,26 +3290,26 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43108</v>
+        <v>43109</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-252.64</v>
+        <v>336.88</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2111,7 +3323,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Memo 11</t>
+          <t>Refund of 01/06/2018</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -2128,22 +3340,26 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43267</v>
+        <v>43182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-981.84</v>
+        <v>-484.39</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2157,7 +3373,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Memo 20</t>
+          <t>Memo 14</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -2174,22 +3390,26 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43278</v>
+        <v>43243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-684.53</v>
+        <v>4.27</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2203,12 +3423,108 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Memo 16</t>
+          <t>Refund of 05/18/2018</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>43262</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" s="3" t="n">
+        <v>-727.42</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Memo 10</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" s="2" t="n">
+        <v>43262</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" s="3" t="n">
+        <v>-435.61</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Memo 18</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Era C</t>
         </is>
@@ -2225,7 +3541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2243,10 +3559,10 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -2330,26 +3646,26 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43108</v>
+        <v>43109</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-252.64</v>
+        <v>336.88</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2363,7 +3679,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Memo 11</t>
+          <t>Refund of 01/06/2018</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -2380,22 +3696,26 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43267</v>
+        <v>43182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-981.84</v>
+        <v>-484.39</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2409,7 +3729,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Memo 20</t>
+          <t>Memo 14</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -2426,22 +3746,26 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43278</v>
+        <v>43243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-684.53</v>
+        <v>4.27</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2455,12 +3779,108 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Memo 16</t>
+          <t>Refund of 05/18/2018</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>43262</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" s="3" t="n">
+        <v>-727.42</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Memo 10</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Era C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" s="2" t="n">
+        <v>43262</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" s="3" t="n">
+        <v>-435.61</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Memo 18</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Era C</t>
         </is>
